--- a/teaching/traditional_assets/database/data/taiwan/taiwan_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_investments_asset_management.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0261</v>
+        <v>-0.111</v>
       </c>
       <c r="E2">
-        <v>0.0207</v>
+        <v>-0.07969999999999999</v>
       </c>
       <c r="G2">
-        <v>0.5580110497237568</v>
+        <v>0.9153846153846155</v>
       </c>
       <c r="H2">
-        <v>0.5580110497237568</v>
+        <v>0.9153846153846155</v>
       </c>
       <c r="I2">
-        <v>0.761333647543284</v>
+        <v>0.6215384615384616</v>
       </c>
       <c r="J2">
-        <v>0.7212516702167405</v>
+        <v>0.5740090497737558</v>
       </c>
       <c r="K2">
-        <v>12.1</v>
+        <v>6.58</v>
       </c>
       <c r="L2">
-        <v>0.6685082872928176</v>
+        <v>0.5061538461538462</v>
       </c>
       <c r="M2">
-        <v>8.68</v>
+        <v>8.3607</v>
       </c>
       <c r="N2">
-        <v>0.06590736522399393</v>
+        <v>0.06802847843775427</v>
       </c>
       <c r="O2">
-        <v>0.7173553719008264</v>
+        <v>1.270623100303951</v>
       </c>
       <c r="P2">
-        <v>8.68</v>
+        <v>8.3607</v>
       </c>
       <c r="Q2">
-        <v>0.06590736522399393</v>
+        <v>0.06802847843775427</v>
       </c>
       <c r="R2">
-        <v>0.7173553719008264</v>
+        <v>1.270623100303951</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>32.5</v>
+        <v>37</v>
       </c>
       <c r="V2">
-        <v>0.2467729688686409</v>
+        <v>0.3010577705451586</v>
       </c>
       <c r="W2">
-        <v>0.06046976511744128</v>
+        <v>0.03345195729537367</v>
       </c>
       <c r="X2">
-        <v>0.05125829440748707</v>
+        <v>0.03856114922038012</v>
       </c>
       <c r="Y2">
-        <v>0.009211470709954213</v>
+        <v>-0.005109191925006452</v>
       </c>
       <c r="Z2">
-        <v>0.1114742716392409</v>
+        <v>0.0775499003782049</v>
       </c>
       <c r="AA2">
-        <v>0.08040100460599714</v>
+        <v>0.04451434462614282</v>
       </c>
       <c r="AB2">
-        <v>0.05104554845167646</v>
+        <v>0.03848216485452512</v>
       </c>
       <c r="AC2">
-        <v>0.02935545615432068</v>
+        <v>0.006032179771617692</v>
       </c>
       <c r="AD2">
-        <v>0.877</v>
+        <v>0.515</v>
       </c>
       <c r="AE2">
-        <v>0.2693048973327857</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.146304897332786</v>
+        <v>0.515</v>
       </c>
       <c r="AG2">
-        <v>-31.35369510266721</v>
+        <v>-36.485</v>
       </c>
       <c r="AH2">
-        <v>0.008628805281552099</v>
+        <v>0.004172912530891706</v>
       </c>
       <c r="AI2">
-        <v>0.005574157522086618</v>
+        <v>0.002530526005454144</v>
       </c>
       <c r="AJ2">
-        <v>-0.3124549043908103</v>
+        <v>-0.4222067928021755</v>
       </c>
       <c r="AK2">
-        <v>-0.181082091941023</v>
+        <v>-0.2191093895444855</v>
       </c>
       <c r="AL2">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AM2">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AN2">
-        <v>0.06249109305971212</v>
+        <v>0.06358024691358025</v>
       </c>
       <c r="AO2">
-        <v>2720</v>
+        <v>1346.666666666667</v>
       </c>
       <c r="AP2">
-        <v>-2.234123920668891</v>
+        <v>-4.504320987654321</v>
       </c>
       <c r="AQ2">
-        <v>2720</v>
+        <v>1346.666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0261</v>
+        <v>-0.111</v>
       </c>
       <c r="E3">
-        <v>0.0207</v>
+        <v>-0.07969999999999999</v>
       </c>
       <c r="G3">
-        <v>0.5580110497237568</v>
+        <v>0.9153846153846155</v>
       </c>
       <c r="H3">
-        <v>0.5580110497237568</v>
+        <v>0.9153846153846155</v>
       </c>
       <c r="I3">
-        <v>0.761333647543284</v>
+        <v>0.6215384615384616</v>
       </c>
       <c r="J3">
-        <v>0.7212516702167405</v>
+        <v>0.5740090497737558</v>
       </c>
       <c r="K3">
-        <v>12.1</v>
+        <v>6.58</v>
       </c>
       <c r="L3">
-        <v>0.6685082872928176</v>
+        <v>0.5061538461538462</v>
       </c>
       <c r="M3">
-        <v>8.68</v>
+        <v>8.3607</v>
       </c>
       <c r="N3">
-        <v>0.06590736522399393</v>
+        <v>0.06802847843775427</v>
       </c>
       <c r="O3">
-        <v>0.7173553719008264</v>
+        <v>1.270623100303951</v>
       </c>
       <c r="P3">
-        <v>8.68</v>
+        <v>8.3607</v>
       </c>
       <c r="Q3">
-        <v>0.06590736522399393</v>
+        <v>0.06802847843775427</v>
       </c>
       <c r="R3">
-        <v>0.7173553719008264</v>
+        <v>1.270623100303951</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>32.5</v>
+        <v>37</v>
       </c>
       <c r="V3">
-        <v>0.2467729688686409</v>
+        <v>0.3010577705451586</v>
       </c>
       <c r="W3">
-        <v>0.06046976511744128</v>
+        <v>0.03345195729537367</v>
       </c>
       <c r="X3">
-        <v>0.05125829440748707</v>
+        <v>0.03856114922038012</v>
       </c>
       <c r="Y3">
-        <v>0.009211470709954213</v>
+        <v>-0.005109191925006452</v>
       </c>
       <c r="Z3">
-        <v>0.1114742716392409</v>
+        <v>0.0775499003782049</v>
       </c>
       <c r="AA3">
-        <v>0.08040100460599714</v>
+        <v>0.04451434462614282</v>
       </c>
       <c r="AB3">
-        <v>0.05104554845167646</v>
+        <v>0.03848216485452512</v>
       </c>
       <c r="AC3">
-        <v>0.02935545615432068</v>
+        <v>0.006032179771617692</v>
       </c>
       <c r="AD3">
-        <v>0.877</v>
+        <v>0.515</v>
       </c>
       <c r="AE3">
-        <v>0.2693048973327857</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.146304897332786</v>
+        <v>0.515</v>
       </c>
       <c r="AG3">
-        <v>-31.35369510266721</v>
+        <v>-36.485</v>
       </c>
       <c r="AH3">
-        <v>0.008628805281552099</v>
+        <v>0.004172912530891706</v>
       </c>
       <c r="AI3">
-        <v>0.005574157522086618</v>
+        <v>0.002530526005454144</v>
       </c>
       <c r="AJ3">
-        <v>-0.3124549043908103</v>
+        <v>-0.4222067928021755</v>
       </c>
       <c r="AK3">
-        <v>-0.181082091941023</v>
+        <v>-0.2191093895444855</v>
       </c>
       <c r="AL3">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AM3">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AN3">
-        <v>0.06249109305971212</v>
+        <v>0.06358024691358025</v>
       </c>
       <c r="AO3">
-        <v>2720</v>
+        <v>1346.666666666667</v>
       </c>
       <c r="AP3">
-        <v>-2.234123920668891</v>
+        <v>-4.504320987654321</v>
       </c>
       <c r="AQ3">
-        <v>2720</v>
+        <v>1346.666666666667</v>
       </c>
     </row>
   </sheetData>
